--- a/data/trans_orig/Q46-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q46-Estudios-trans_orig.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>79,97</t>
+          <t>80,08</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>70,65</t>
+          <t>70,72</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>74,36</t>
+          <t>74,57</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>78,78; 81,21</t>
+          <t>78,89; 81,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>69,79; 71,47</t>
+          <t>69,89; 71,53</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>73,6; 75,14</t>
+          <t>73,8; 75,34</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>80,96</t>
+          <t>82,57</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>68,17</t>
+          <t>68,68</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>74,47</t>
+          <t>75,77</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>80,14; 82,59</t>
+          <t>80,22; 87,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>67,27; 70,47</t>
+          <t>67,02; 72,18</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>73,82; 75,65</t>
+          <t>74,04; 80,44</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>80,79</t>
+          <t>80,9</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>66,08</t>
+          <t>66,03</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>73,23</t>
+          <t>73,41</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>79,68; 81,84</t>
+          <t>79,81; 81,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>65,29; 66,98</t>
+          <t>65,24; 66,87</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>72,37; 74,08</t>
+          <t>72,53; 74,25</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>80,77</t>
+          <t>81,89</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>68,3</t>
+          <t>68,6</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>74,21</t>
+          <t>75,13</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>80,13; 81,91</t>
+          <t>80,28; 86,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>67,76; 70,26</t>
+          <t>67,63; 72,03</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>73,74; 74,9</t>
+          <t>74,01; 78,43</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/Q46-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q46-Estudios-trans_orig.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>76,51; 78,11</t>
+          <t>76,59; 78,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>78,3; 80,09</t>
+          <t>78,37; 80,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>78,89; 80,97</t>
+          <t>78,76; 80,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>78,89; 81,33</t>
+          <t>78,8; 81,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>67,95; 69,3</t>
+          <t>68,05; 69,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>70,96; 72,42</t>
+          <t>70,98; 72,44</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>70,95; 72,71</t>
+          <t>70,93; 72,73</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>69,89; 71,53</t>
+          <t>69,97; 71,59</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>71,98; 73,08</t>
+          <t>71,96; 73,01</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>74,31; 75,45</t>
+          <t>74,28; 75,42</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>74,61; 75,98</t>
+          <t>74,65; 76,03</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>73,8; 75,34</t>
+          <t>73,79; 75,26</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>77,46; 78,52</t>
+          <t>77,48; 78,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>79,25; 80,47</t>
+          <t>79,35; 80,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>79,22; 80,51</t>
+          <t>79,24; 80,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>80,22; 87,68</t>
+          <t>80,21; 88,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>63,18; 64,36</t>
+          <t>63,14; 64,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>65,74; 66,97</t>
+          <t>65,71; 66,89</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>65,89; 67,11</t>
+          <t>65,9; 67,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>67,02; 72,18</t>
+          <t>67,0; 72,65</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>70,63; 71,6</t>
+          <t>70,68; 71,58</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>73,04; 74,01</t>
+          <t>73,05; 74,03</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>72,78; 73,74</t>
+          <t>72,8; 73,74</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>74,04; 80,44</t>
+          <t>74,06; 80,49</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>78,14; 80,12</t>
+          <t>78,03; 80,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>79,8; 82,14</t>
+          <t>79,96; 82,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>79,45; 81,81</t>
+          <t>79,36; 81,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>79,81; 81,99</t>
+          <t>79,8; 82,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>61,91; 64,08</t>
+          <t>61,88; 64,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>63,02; 65,21</t>
+          <t>62,94; 65,17</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>63,68; 65,68</t>
+          <t>63,67; 65,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>65,24; 66,87</t>
+          <t>65,2; 66,86</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>70,7; 72,46</t>
+          <t>70,74; 72,51</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>71,76; 73,68</t>
+          <t>71,74; 73,7</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>71,8; 73,61</t>
+          <t>71,68; 73,52</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>72,53; 74,25</t>
+          <t>72,62; 74,26</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>77,55; 78,4</t>
+          <t>77,56; 78,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>79,4; 80,34</t>
+          <t>79,42; 80,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>79,5; 80,46</t>
+          <t>79,43; 80,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>80,28; 86,12</t>
+          <t>80,26; 86,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>65,13; 65,98</t>
+          <t>65,1; 65,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>67,54; 68,45</t>
+          <t>67,51; 68,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>67,22; 68,13</t>
+          <t>67,18; 68,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>67,63; 72,03</t>
+          <t>67,61; 71,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>71,35; 72,0</t>
+          <t>71,33; 71,99</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>73,48; 74,19</t>
+          <t>73,53; 74,21</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>73,33; 74,03</t>
+          <t>73,32; 74,05</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>74,01; 78,43</t>
+          <t>73,98; 78,13</t>
         </is>
       </c>
     </row>
